--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +432,67 @@
       <c r="I1" s="1" t="str">
         <v>descripcion</v>
       </c>
+      <c r="J1" s="1" t="str">
+        <v>direccion_referencia</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <v>comuna_referencia</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <v>region_referencia</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <v>acierto_direccion</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <v>similitud_sitio_web</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <v>url_1</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <v>similitud_1</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <v>url_2</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <v>similitud_2</v>
+      </c>
+      <c r="S1" s="1" t="str">
+        <v>url_3</v>
+      </c>
+      <c r="T1" s="1" t="str">
+        <v>similitud_3</v>
+      </c>
+      <c r="U1" s="1" t="str">
+        <v>url_4</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <v>similitud_4</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <v>url_5</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <v>similitud_5</v>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <v>url_6</v>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <v>similitud_6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>ODONTOLOGIA RG SPA</v>
+        <v>FUNDACION ARTURO IRARRAZAVAL CORREA</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>77.279.235-2</v>
+        <v>50000100-3</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v/>
+        <v>http://www.fira.cl</v>
       </c>
       <c r="D2" s="1" t="str">
         <v/>
@@ -450,56 +501,158 @@
         <v/>
       </c>
       <c r="F2" s="1" t="str">
-        <v/>
+        <v>Avenida Isidora Goyenechea 3356</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v/>
+        <v>LAS CONDES</v>
       </c>
       <c r="H2" s="1" t="str">
-        <v/>
+        <v>XIII REGION METROPOLITANA</v>
       </c>
       <c r="I2" s="1" t="str">
-        <v/>
+        <v>La misión de Fundación Irarrázaval es contribuir al sostenimiento y desarrollo de instituciones y establecimientos de Educación Técnica que capacitan para ejercer de un determinado oficio y que entreguen una sólida formación espiritual sustentada bajo los principios de la moral cristiana.</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <v>ISIDORA GOYENECHEA 3356 31</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <v>LAS CONDES</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <v>XIII REGION METROPOLITANA</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <v>Exacto</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <v>10.8%</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <v>9.8%</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <v>https://www.fira.cl/contacto</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <v>10.8%</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <v>https://www.fira.cl/</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <v>10.8%</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <v>https://www.fira.cl/centenario/fundador-arturo-irarrazaval.php</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <v>10.8%</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <v>https://www.redfira.cl/</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <v>15.0%</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <v>https://cl.linkedin.com/company/fundaci%C3%B3n-arturo-irarr%C3%A1zaval-correa</v>
+      </c>
+      <c r="Z2" s="1" t="str">
+        <v>4.4%</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>Geo BPO Chile S.A.</v>
+        <v>TORREJON CASTRO LUIS Y JOSE</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>76.321.457-9</v>
+        <v>50000510-6</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>https://www.geobpo.cl/contacto/</v>
+        <v/>
       </c>
       <c r="D3" s="1" t="str">
-        <v>contacto@geobpo.cl</v>
+        <v/>
       </c>
       <c r="E3" s="1" t="str">
-        <v>(+56 2) 2829 5050</v>
+        <v/>
       </c>
       <c r="F3" s="1" t="str">
-        <v>Monjitas #843, Torre A, Piso 2, Santiago</v>
+        <v>Chile, Iv Region Coquimbo, Ovalle, Calle Libertad 496</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>Santiago</v>
+        <v>OVALLE</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v/>
+        <v>IV REGION COQUIMBO</v>
       </c>
       <c r="I3" s="1" t="str">
-        <v>Soluciones integradas a herramientas de geobusiness en un solo proveedor. Mejoramos la eficiencia de tus proyectos.</v>
+        <v>La empresa se dedica al transporte de carga por carretera, transportes terrestres y mudanzas. Se encuentra ubicada en la región de Coquimbo, comuna de Ovalle. Es una sociedad de hecho sin personalidad jurídica y comenzó sus operaciones el 01/01/93. Se clasifica como una pequeña empresa con una cantidad de personas entre 1-50.</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <v>LIBERTAD 496</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v>OVALLE</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <v>IV REGION COQUIMBO</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <v>Exacto</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="O3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwNzkxNzAtNA-jTw/nombre-y-rut/IMPRENTA-GAMA-50879170-4</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDkzNTAtMQ-jTw/nombre-y-rut/MENESES-Y-ROJAS-ARQUITECTOS-LIMITADA-50009350-1</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <v>https://www.dgac.gob.cl/wp-content/uploads/2024/11/Lista-de-Empresas-RPA-con-AOC-y-CEO-22-NOV-2024.pdf</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAxTwNTkwODAtMA-jTw/nombre-y-rut/CELTA-50159080-0</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDA1MTAtNg-jTw/nombre-y-rut/TRANSPORTES-TORREJON-HNOS.-50000510-6</v>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <v>0.0%</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>INMOBILIARIA SALFA AUSTRAL LIMITADA</v>
+        <v>PONCE PONCE MANUEL E HIJOS</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>96610790-1</v>
+        <v>50000710-9</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>https://www.salfaustral.cl/</v>
+        <v/>
       </c>
       <c r="D4" s="1" t="str">
         <v/>
@@ -508,137 +661,152 @@
         <v/>
       </c>
       <c r="F4" s="1" t="str">
-        <v>Avda Presidente Riesco 5335</v>
+        <v/>
       </c>
       <c r="G4" s="1" t="str">
-        <v>LAS CONDES</v>
+        <v>COQUIMBO</v>
       </c>
       <c r="H4" s="1" t="str">
-        <v>XIII REGION METROPOLITANA</v>
+        <v>IV REGION COQUIMBO</v>
       </c>
       <c r="I4" s="1" t="str">
-        <v>ACTIVIDADES INMOBILIARIAS REALIZADAS CON BIENES PROPIOS O ARRENDADOS. COMPRA, VENTA Y ALQUILER (EXCEPTO AMOBLADOS) DE INMUEBLES PROPIOS O ARRENDADOS. ARRIENDO Y VENTA DE INMUEBLES.</v>
+        <v>INDUSTRIAS MANUFACTURERAS METALICAS, FAB. DE PROD. METALICOS PARA USO ESTRUCTURAL, FABRICACION DE PRODUCTOS METALICOS DE USO ESTRUCTURAL</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <v>LINARES 569 TIERRAS BLANCAS</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>COQUIMBO</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <v>IV REGION COQUIMBO</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <v>Exacto</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="O4" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDA3MTAtOQ-jTw/nombre-y-rut/PONCE-PONCE-MANUEL-E-HIJOS-50000710-9</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA3TwNjYxNzAtSw-jTw/nombre-y-rut/PONCE-CARRASCO-FERNANDO-JOSE-Y-OTRO-50766170-K</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA1TwNTYxMjAtMQ-jTw/nombre-y-rut/ALIANZA-50556120-1</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwOTI1NDAtOQ-jTw/nombre-y-rut/LAZO-PONCE-ABEL-ENRIQUE-Y-OTRO-50892540-9</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <v>https://www.dgac.gob.cl/wp-content/uploads/2025/06/LISTADO-EMPRESAS-CON-CERTIFICADO-DE-OPERADOR-AEREO-AOC-VIGENTE-06JUN25.pdf</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <v>https://www.ex-ante.cl/perfil-francisca-ponce-la-heredera-de-ponce-lerou-y-las-sociedades-que-ha-constituido/</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <v>6.7%</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v>XNEAR S.A.</v>
+        <v>GARCIA MARTINEZ MARIA MILAGRO Y OTRO</v>
       </c>
       <c r="B5" s="1" t="str">
-        <v>96759460-1</v>
+        <v>50001570-5</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>https://www.xnear.cl/</v>
+        <v/>
       </c>
       <c r="D5" s="1" t="str">
-        <v>contacto@xnear.cl</v>
+        <v/>
       </c>
       <c r="E5" s="1" t="str">
-        <v>227876700</v>
+        <v/>
       </c>
       <c r="F5" s="1" t="str">
-        <v>Sara del Campo 562 oficina 301, Santiago, Chile</v>
+        <v>Chile, Xiii Region Metropolitana, Santiago, Gran Avenida 5427, San Miguel 5427</v>
       </c>
       <c r="G5" s="1" t="str">
-        <v>SANTIAGO</v>
+        <v>SAN MIGUEL</v>
       </c>
       <c r="H5" s="1" t="str">
         <v>XIII REGION METROPOLITANA</v>
       </c>
       <c r="I5" s="1" t="str">
-        <v>Es una empresa con más de 21 años de experiencia en la entrega de soluciones informáticas de largo plazo, principalmente a organizaciones del sector financiero.</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
-        <v>GSMIN SPA</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>77048327-1</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>https://www.gsmin.cl/</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>CONTACTO@GSMIN.CL</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <v>+56 9 44721340</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I6" s="1" t="str">
-        <v>GSMIN INGENIERIA Making Green Solutions PROPORCIONAMOS SOLUCIONES ENERGETICAS ENERGÍA SUSTENTABLE RESIDENCIAL INDUSTRIAL AGRÍCOLA ​ ENERGÍAS RENOVABLES AUTOMATIZACIÓN ELECTRICIDAD</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>ALTO ALEBU Y COMPANIA LIMITADA</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>76366944-0</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G7" s="1" t="str">
-        <v>LA REINA</v>
-      </c>
-      <c r="H7" s="1" t="str">
+        <v>Rubro HOTELES Y RESTAURANTES Subrubro RESTAURANTES, BARES Y CANTINAS Actividades Económicas o Giros ESTABLECIMIENTOS DE COMIDA RAPIDA (BARES, FUENTES DE SODA, GELATERIAS, PIZZERIAS Y SIMILARES). RESTAURANTES DE COMIDA RAPIDA.</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <v>GRAN AVENIDA 5427</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <v>SAN MIGUEL</v>
+      </c>
+      <c r="L5" s="1" t="str">
         <v>XIII REGION METROPOLITANA</v>
       </c>
-      <c r="I7" s="1" t="str">
-        <v>ESTABLECIMIENTOS DE COMIDA RAPIDA (BARES, FUENTES DE SODA, GELATERIAS, PIZZERIAS Y SIMILARES)</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>CONSTRUCCIONES P Y C LIMITADA</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>76387484-2</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>https://www.constructorapyc.cl/</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>proyectos@constructorapyc.com</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>+56973307488</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v>SAN BERNARDO</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <v>XIII REGION METROPOLITANA</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <v>P&amp;C , Servicios Construcciones Limitada, se crea en el año 2016, con la finalidad de brindar apoyo a empresas del área de la construcción, de manera profesional y para ello cuenta con especialización técnica y mano de obra calificada, proporcionando elementos de seguridad, capacitación y supervisión a todos sus trabajadores. Se desarrolla en el área de remodelación y mantención, además de prestar servicio en aseo integral, manejando proyectos con principios de calidad, tiempos y costos. Adaptamos las especificaciones técnicas y tiempos a los diversos requerimientos de nuestros clientes. Al confiar en nuestra empresa, la constructora gana productividad, tiempo y se asegura la finalización de un proyecto de calidad.</v>
+      <c r="M5" s="1" t="str">
+        <v>Exacto</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="O5" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <v>5.0%</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDE1NzAtNQ-jTw/nombre-y-rut/GARCIA-MARTINEZ-MARIA-MILAGRO-Y-OTRO-50001570-5</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <v>5.0%</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTEwTwMDEwNjAtNA-jTw/nombre-y-rut/VETERINARIA-SALESIANOS-51001060-4</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <v>5.0%</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <v>https://vlex.cl/vid/pina-garcia-martinez-maria-868053987</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <v>https://cl.linkedin.com/pub/dir/Milagro/Garcia/cl-0-Chile</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <v>4.5%</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <v>https://www.minvu.gob.cl/wp-content/uploads/2021/03/Beneficiados-2%C2%B0-Seleccion-BM-2020.pdf</v>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <v>9.8%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,75 +412,81 @@
         <v>rut</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>sitio_web</v>
+        <v>telefono</v>
       </c>
       <c r="D1" s="1" t="str">
         <v>email</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>telefono</v>
+        <v>sitio_web</v>
       </c>
       <c r="F1" s="1" t="str">
+        <v>similitud_sitio_web</v>
+      </c>
+      <c r="G1" s="1" t="str">
         <v>direccion</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>comuna</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>region</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
+        <v>latitud</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <v>longitud</v>
+      </c>
+      <c r="L1" s="1" t="str">
         <v>descripcion</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="M1" s="1" t="str">
         <v>direccion_referencia</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="N1" s="1" t="str">
         <v>comuna_referencia</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="O1" s="1" t="str">
         <v>region_referencia</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="P1" s="1" t="str">
         <v>acierto_direccion</v>
       </c>
-      <c r="N1" s="1" t="str">
-        <v>similitud_sitio_web</v>
-      </c>
-      <c r="O1" s="1" t="str">
+      <c r="Q1" s="1" t="str">
         <v>url_1</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="R1" s="1" t="str">
         <v>similitud_1</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="S1" s="1" t="str">
         <v>url_2</v>
       </c>
-      <c r="R1" s="1" t="str">
+      <c r="T1" s="1" t="str">
         <v>similitud_2</v>
       </c>
-      <c r="S1" s="1" t="str">
+      <c r="U1" s="1" t="str">
         <v>url_3</v>
       </c>
-      <c r="T1" s="1" t="str">
+      <c r="V1" s="1" t="str">
         <v>similitud_3</v>
       </c>
-      <c r="U1" s="1" t="str">
+      <c r="W1" s="1" t="str">
         <v>url_4</v>
       </c>
-      <c r="V1" s="1" t="str">
+      <c r="X1" s="1" t="str">
         <v>similitud_4</v>
       </c>
-      <c r="W1" s="1" t="str">
+      <c r="Y1" s="1" t="str">
         <v>url_5</v>
       </c>
-      <c r="X1" s="1" t="str">
+      <c r="Z1" s="1" t="str">
         <v>similitud_5</v>
       </c>
-      <c r="Y1" s="1" t="str">
+      <c r="AA1" s="1" t="str">
         <v>url_6</v>
       </c>
-      <c r="Z1" s="1" t="str">
+      <c r="AB1" s="1" t="str">
         <v>similitud_6</v>
       </c>
     </row>
@@ -492,76 +498,82 @@
         <v>50000100-3</v>
       </c>
       <c r="C2" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="1" t="str">
         <v>http://www.fira.cl</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v/>
-      </c>
       <c r="F2" s="1" t="str">
+        <v>10.8%</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <v>Avenida Isidora Goyenechea 3356</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="H2" s="1" t="str">
         <v>LAS CONDES</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <v>XIII REGION METROPOLITANA</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="J2" s="1" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="1" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="1" t="str">
         <v>La misión de Fundación Irarrázaval es contribuir al sostenimiento y desarrollo de instituciones y establecimientos de Educación Técnica que capacitan para ejercer de un determinado oficio y que entreguen una sólida formación espiritual sustentada bajo los principios de la moral cristiana.</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="M2" s="1" t="str">
         <v>ISIDORA GOYENECHEA 3356 31</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="N2" s="1" t="str">
         <v>LAS CONDES</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="O2" s="1" t="str">
         <v>XIII REGION METROPOLITANA</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="P2" s="1" t="str">
         <v>Exacto</v>
       </c>
-      <c r="N2" s="1" t="str">
-        <v>10.8%</v>
-      </c>
-      <c r="O2" s="1" t="str">
+      <c r="Q2" s="1" t="str">
         <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="R2" s="1" t="str">
         <v>9.8%</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="S2" s="1" t="str">
         <v>https://www.fira.cl/contacto</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <v>10.8%</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <v>https://www.fira.cl/</v>
       </c>
       <c r="T2" s="1" t="str">
         <v>10.8%</v>
       </c>
       <c r="U2" s="1" t="str">
-        <v>https://www.fira.cl/centenario/fundador-arturo-irarrazaval.php</v>
+        <v>https://www.fira.cl/</v>
       </c>
       <c r="V2" s="1" t="str">
         <v>10.8%</v>
       </c>
       <c r="W2" s="1" t="str">
-        <v>https://www.redfira.cl/</v>
+        <v>https://www.amarillas.cl/fichas/fundacion-arturo-irarrazaval-correa_15371977</v>
       </c>
       <c r="X2" s="1" t="str">
-        <v>15.0%</v>
+        <v>4.8%</v>
       </c>
       <c r="Y2" s="1" t="str">
         <v>https://cl.linkedin.com/company/fundaci%C3%B3n-arturo-irarr%C3%A1zaval-correa</v>
       </c>
       <c r="Z2" s="1" t="str">
         <v>4.4%</v>
+      </c>
+      <c r="AA2" s="1" t="str">
+        <v>https://www.redfira.cl/</v>
+      </c>
+      <c r="AB2" s="1" t="str">
+        <v>15.0%</v>
       </c>
     </row>
     <row r="3">
@@ -581,66 +593,72 @@
         <v/>
       </c>
       <c r="F3" s="1" t="str">
-        <v>Chile, Iv Region Coquimbo, Ovalle, Calle Libertad 496</v>
+        <v/>
       </c>
       <c r="G3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="I3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="J3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="K3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="L3" s="1" t="str">
+        <v/>
+      </c>
+      <c r="M3" s="1" t="str">
+        <v>LIBERTAD 496</v>
+      </c>
+      <c r="N3" s="1" t="str">
         <v>OVALLE</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="O3" s="1" t="str">
         <v>IV REGION COQUIMBO</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <v>La empresa se dedica al transporte de carga por carretera, transportes terrestres y mudanzas. Se encuentra ubicada en la región de Coquimbo, comuna de Ovalle. Es una sociedad de hecho sin personalidad jurídica y comenzó sus operaciones el 01/01/93. Se clasifica como una pequeña empresa con una cantidad de personas entre 1-50.</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>LIBERTAD 496</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <v>OVALLE</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v>IV REGION COQUIMBO</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>Exacto</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O3" s="1" t="str">
+      <c r="P3" s="1" t="str">
+        <v>Incorrecto</v>
+      </c>
+      <c r="Q3" s="1" t="str">
         <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
       </c>
-      <c r="P3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="Q3" s="1" t="str">
+      <c r="R3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="S3" s="1" t="str">
         <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwNzkxNzAtNA-jTw/nombre-y-rut/IMPRENTA-GAMA-50879170-4</v>
       </c>
-      <c r="R3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="S3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDkzNTAtMQ-jTw/nombre-y-rut/MENESES-Y-ROJAS-ARQUITECTOS-LIMITADA-50009350-1</v>
-      </c>
       <c r="T3" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="U3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwOTU2NjAtNg-jTw/nombre-y-rut/ARREGLOS-DE-FLORES-JARDIN-ESMERALDA-50895660-6</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="W3" s="1" t="str">
         <v>https://www.dgac.gob.cl/wp-content/uploads/2024/11/Lista-de-Empresas-RPA-con-AOC-y-CEO-22-NOV-2024.pdf</v>
       </c>
-      <c r="V3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="W3" s="1" t="str">
+      <c r="X3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="Y3" s="1" t="str">
         <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAxTwNTkwODAtMA-jTw/nombre-y-rut/CELTA-50159080-0</v>
       </c>
-      <c r="X3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="Y3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDA1MTAtNg-jTw/nombre-y-rut/TRANSPORTES-TORREJON-HNOS.-50000510-6</v>
-      </c>
       <c r="Z3" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAzTwMTM4NjAtMw-jTw/nombre-y-rut/PHONE-BOX-PUB-LTDA.-50313860-3</v>
+      </c>
+      <c r="AB3" s="1" t="str">
         <v>0.0%</v>
       </c>
     </row>
@@ -664,63 +682,69 @@
         <v/>
       </c>
       <c r="G4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="H4" s="1" t="str">
         <v>COQUIMBO</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <v>IV REGION COQUIMBO</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <v>INDUSTRIAS MANUFACTURERAS METALICAS, FAB. DE PROD. METALICOS PARA USO ESTRUCTURAL, FABRICACION DE PRODUCTOS METALICOS DE USO ESTRUCTURAL</v>
-      </c>
       <c r="J4" s="1" t="str">
+        <v>-29.9619314</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <v>-71.2591243</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <v>INDUSTRIAS MANUFACTURERAS METALICAS, FABRICACION DE PRODUCTOS METALICOS DE USO ESTRUCTURAL</v>
+      </c>
+      <c r="M4" s="1" t="str">
         <v>LINARES 569 TIERRAS BLANCAS</v>
       </c>
-      <c r="K4" s="1" t="str">
+      <c r="N4" s="1" t="str">
         <v>COQUIMBO</v>
       </c>
-      <c r="L4" s="1" t="str">
+      <c r="O4" s="1" t="str">
         <v>IV REGION COQUIMBO</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="P4" s="1" t="str">
         <v>Exacto</v>
       </c>
-      <c r="N4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O4" s="1" t="str">
+      <c r="Q4" s="1" t="str">
         <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDA3MTAtOQ-jTw/nombre-y-rut/PONCE-PONCE-MANUEL-E-HIJOS-50000710-9</v>
       </c>
-      <c r="P4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="Q4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA3TwNjYxNzAtSw-jTw/nombre-y-rut/PONCE-CARRASCO-FERNANDO-JOSE-Y-OTRO-50766170-K</v>
-      </c>
       <c r="R4" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="S4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA1TwNTYxMjAtMQ-jTw/nombre-y-rut/ALIANZA-50556120-1</v>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwOTIyMTAtOQ-jTw/nombre-y-rut/MANUEL-OLAVE-E-HIJO-LTDA.-MANUEL-50092210-9</v>
       </c>
       <c r="T4" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="U4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwOTI1NDAtOQ-jTw/nombre-y-rut/LAZO-PONCE-ABEL-ENRIQUE-Y-OTRO-50892540-9</v>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA2TwNDExNDAtOA-jTw/nombre-y-rut/ESTACIONAMIENTOS-MANUEL-ESPINOZA-50641140-8</v>
       </c>
       <c r="V4" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="W4" s="1" t="str">
-        <v>https://www.dgac.gob.cl/wp-content/uploads/2025/06/LISTADO-EMPRESAS-CON-CERTIFICADO-DE-OPERADOR-AEREO-AOC-VIGENTE-06JUN25.pdf</v>
+        <v>https://www.bcn.cl/portal/resultado-busqueda?texto=Ponce%20Jorquera,%20Manuel&amp;dc_source=&amp;npagina=1&amp;orden_por=1&amp;orden_ad=desc</v>
       </c>
       <c r="X4" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="Y4" s="1" t="str">
+        <v>https://www.linkedin.com/pub/dir/Jeremias/Ponce+Ponce</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="AA4" s="1" t="str">
         <v>https://www.ex-ante.cl/perfil-francisca-ponce-la-heredera-de-ponce-lerou-y-las-sociedades-que-ha-constituido/</v>
       </c>
-      <c r="Z4" s="1" t="str">
+      <c r="AB4" s="1" t="str">
         <v>6.7%</v>
       </c>
     </row>
@@ -741,72 +765,78 @@
         <v/>
       </c>
       <c r="F5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="G5" s="1" t="str">
         <v>Chile, Xiii Region Metropolitana, Santiago, Gran Avenida 5427, San Miguel 5427</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="1" t="str">
         <v>SAN MIGUEL</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="I5" s="1" t="str">
         <v>XIII REGION METROPOLITANA</v>
       </c>
-      <c r="I5" s="1" t="str">
-        <v>Rubro HOTELES Y RESTAURANTES Subrubro RESTAURANTES, BARES Y CANTINAS Actividades Económicas o Giros ESTABLECIMIENTOS DE COMIDA RAPIDA (BARES, FUENTES DE SODA, GELATERIAS, PIZZERIAS Y SIMILARES). RESTAURANTES DE COMIDA RAPIDA.</v>
-      </c>
       <c r="J5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="K5" s="1" t="str">
+        <v/>
+      </c>
+      <c r="L5" s="1" t="str">
+        <v>Rubro HOTELES Y RESTAURANTES. Subrubro RESTAURANTES, BARES Y CANTINAS. Actividades Económicas o Giros ESTABLECIMIENTOS DE COMIDA RAPIDA (BARES, FUENTES DE SODA, GELATERIAS, PIZZERIAS Y SIMILARES). RESTAURANTES DE COMIDA RAPIDA.</v>
+      </c>
+      <c r="M5" s="1" t="str">
         <v>GRAN AVENIDA 5427</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="N5" s="1" t="str">
         <v>SAN MIGUEL</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="O5" s="1" t="str">
         <v>XIII REGION METROPOLITANA</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="P5" s="1" t="str">
         <v>Exacto</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="O5" s="1" t="str">
+      <c r="Q5" s="1" t="str">
         <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
-      </c>
-      <c r="P5" s="1" t="str">
-        <v>5.0%</v>
-      </c>
-      <c r="Q5" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDE1NzAtNQ-jTw/nombre-y-rut/GARCIA-MARTINEZ-MARIA-MILAGRO-Y-OTRO-50001570-5</v>
       </c>
       <c r="R5" s="1" t="str">
         <v>5.0%</v>
       </c>
       <c r="S5" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTEwTwMDEwNjAtNA-jTw/nombre-y-rut/VETERINARIA-SALESIANOS-51001060-4</v>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDE1NzAtNQ-jTw/nombre-y-rut/GARCIA-MARTINEZ-MARIA-MILAGRO-Y-OTRO-50001570-5</v>
       </c>
       <c r="T5" s="1" t="str">
         <v>5.0%</v>
       </c>
       <c r="U5" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTEwTwMDEwNjAtNA-jTw/nombre-y-rut/VETERINARIA-SALESIANOS-51001060-4</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <v>5.0%</v>
+      </c>
+      <c r="W5" s="1" t="str">
         <v>https://vlex.cl/vid/pina-garcia-martinez-maria-868053987</v>
       </c>
-      <c r="V5" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="W5" s="1" t="str">
-        <v>https://cl.linkedin.com/pub/dir/Milagro/Garcia/cl-0-Chile</v>
-      </c>
       <c r="X5" s="1" t="str">
-        <v>4.5%</v>
+        <v>0.0%</v>
       </c>
       <c r="Y5" s="1" t="str">
         <v>https://www.minvu.gob.cl/wp-content/uploads/2021/03/Beneficiados-2%C2%B0-Seleccion-BM-2020.pdf</v>
       </c>
       <c r="Z5" s="1" t="str">
         <v>9.8%</v>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <v>https://cl.linkedin.com/pub/dir/Milagro/Garcia/cl-0-Chile</v>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <v>4.5%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -558,22 +558,22 @@
         <v>10.8%</v>
       </c>
       <c r="W2" s="1" t="str">
+        <v>https://www.redfira.cl/</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <v>15.0%</v>
+      </c>
+      <c r="Y2" s="1" t="str">
         <v>https://www.amarillas.cl/fichas/fundacion-arturo-irarrazaval-correa_15371977</v>
       </c>
-      <c r="X2" s="1" t="str">
+      <c r="Z2" s="1" t="str">
         <v>4.8%</v>
       </c>
-      <c r="Y2" s="1" t="str">
+      <c r="AA2" s="1" t="str">
         <v>https://cl.linkedin.com/company/fundaci%C3%B3n-arturo-irarr%C3%A1zaval-correa</v>
       </c>
-      <c r="Z2" s="1" t="str">
+      <c r="AB2" s="1" t="str">
         <v>4.4%</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <v>https://www.redfira.cl/</v>
-      </c>
-      <c r="AB2" s="1" t="str">
-        <v>15.0%</v>
       </c>
     </row>
     <row r="3">
@@ -632,34 +632,34 @@
         <v>0.0%</v>
       </c>
       <c r="S3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwNzkxNzAtNA-jTw/nombre-y-rut/IMPRENTA-GAMA-50879170-4</v>
+        <v>https://www.dgac.gob.cl/wp-content/uploads/2024/11/Lista-de-Empresas-RPA-con-AOC-y-CEO-22-NOV-2024.pdf</v>
       </c>
       <c r="T3" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="U3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwOTU2NjAtNg-jTw/nombre-y-rut/ARREGLOS-DE-FLORES-JARDIN-ESMERALDA-50895660-6</v>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDkzNTAtMQ-jTw/nombre-y-rut/MENESES-Y-ROJAS-ARQUITECTOS-LIMITADA-50009350-1</v>
       </c>
       <c r="V3" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="W3" s="1" t="str">
-        <v>https://www.dgac.gob.cl/wp-content/uploads/2024/11/Lista-de-Empresas-RPA-con-AOC-y-CEO-22-NOV-2024.pdf</v>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAxTwNTkwODAtMA-jTw/nombre-y-rut/CELTA-50159080-0</v>
       </c>
       <c r="X3" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAxTwNTkwODAtMA-jTw/nombre-y-rut/CELTA-50159080-0</v>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAzTwMTM4NjAtMw-jTw/nombre-y-rut/PHONE-BOX-PUB-LTDA.-50313860-3</v>
       </c>
       <c r="Z3" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="AA3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAzTwMTM4NjAtMw-jTw/nombre-y-rut/PHONE-BOX-PUB-LTDA.-50313860-3</v>
+        <v>https://directorioempresaschilenas.cl/directory-bb_empresas/ubicaciones/ovalle/</v>
       </c>
       <c r="AB3" s="1" t="str">
-        <v>0.0%</v>
+        <v>16.0%</v>
       </c>
     </row>
     <row r="4">
@@ -691,13 +691,13 @@
         <v>IV REGION COQUIMBO</v>
       </c>
       <c r="J4" s="1" t="str">
-        <v>-29.9619314</v>
+        <v/>
       </c>
       <c r="K4" s="1" t="str">
-        <v>-71.2591243</v>
+        <v/>
       </c>
       <c r="L4" s="1" t="str">
-        <v>INDUSTRIAS MANUFACTURERAS METALICAS, FABRICACION DE PRODUCTOS METALICOS DE USO ESTRUCTURAL</v>
+        <v>INDUSTRIAS MANUFACTURERAS METALICAS, FAB. DE PROD. METALICOS PARA USO ESTRUCTURAL, FABRICACION DE PRODUCTOS METALICOS DE USO ESTRUCTURAL</v>
       </c>
       <c r="M4" s="1" t="str">
         <v>LINARES 569 TIERRAS BLANCAS</v>
@@ -718,34 +718,34 @@
         <v>0.0%</v>
       </c>
       <c r="S4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwOTIyMTAtOQ-jTw/nombre-y-rut/MANUEL-OLAVE-E-HIJO-LTDA.-MANUEL-50092210-9</v>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA1TwNTYxMjAtMQ-jTw/nombre-y-rut/ALIANZA-50556120-1</v>
       </c>
       <c r="T4" s="1" t="str">
         <v>0.0%</v>
       </c>
       <c r="U4" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwOTI1NDAtOQ-jTw/nombre-y-rut/LAZO-PONCE-ABEL-ENRIQUE-Y-OTRO-50892540-9</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="W4" s="1" t="str">
         <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA2TwNDExNDAtOA-jTw/nombre-y-rut/ESTACIONAMIENTOS-MANUEL-ESPINOZA-50641140-8</v>
       </c>
-      <c r="V4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="W4" s="1" t="str">
+      <c r="X4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAxTwMTc2NzAtMg-jTw/nombre-y-rut/CABELLO-E-HIJO-50117670-2</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <v>0.0%</v>
+      </c>
+      <c r="AA4" s="1" t="str">
         <v>https://www.bcn.cl/portal/resultado-busqueda?texto=Ponce%20Jorquera,%20Manuel&amp;dc_source=&amp;npagina=1&amp;orden_por=1&amp;orden_ad=desc</v>
       </c>
-      <c r="X4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <v>https://www.linkedin.com/pub/dir/Jeremias/Ponce+Ponce</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <v>https://www.ex-ante.cl/perfil-francisca-ponce-la-heredera-de-ponce-lerou-y-las-sociedades-que-ha-constituido/</v>
-      </c>
       <c r="AB4" s="1" t="str">
-        <v>6.7%</v>
+        <v>0.0%</v>
       </c>
     </row>
     <row r="5">
@@ -783,7 +783,7 @@
         <v/>
       </c>
       <c r="L5" s="1" t="str">
-        <v>Rubro HOTELES Y RESTAURANTES. Subrubro RESTAURANTES, BARES Y CANTINAS. Actividades Económicas o Giros ESTABLECIMIENTOS DE COMIDA RAPIDA (BARES, FUENTES DE SODA, GELATERIAS, PIZZERIAS Y SIMILARES). RESTAURANTES DE COMIDA RAPIDA.</v>
+        <v>La empresa 'GARCIA MARTINEZ MARIA MILAGRO Y OTRO' se dedica al rubro de HOTELES Y RESTAURANTES, específicamente en el subrubro de RESTAURANTES, BARES Y CANTINAS. Sus actividades económicas o giros incluyen ESTABLECIMIENTOS DE COMIDA RAPIDA (BARES, FUENTES DE SODA, GELATERIAS, PIZZERIAS Y SIMILARES) y RESTAURANTES DE COMIDA RAPIDA. Se encuentra en la región metropolitana, comuna de San Miguel. La empresa comenzó sus operaciones el 01/01/93 y se clasifica como una microempresa con una cantidad de personas entre 1-50.</v>
       </c>
       <c r="M5" s="1" t="str">
         <v>GRAN AVENIDA 5427</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,422 +421,97 @@
         <v>sitio_web</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>similitud_sitio_web</v>
+        <v>direccion</v>
       </c>
       <c r="G1" s="1" t="str">
-        <v>direccion</v>
+        <v>comuna</v>
       </c>
       <c r="H1" s="1" t="str">
-        <v>comuna</v>
+        <v>region</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>region</v>
+        <v>descripcion</v>
       </c>
       <c r="J1" s="1" t="str">
-        <v>latitud</v>
+        <v>url_1</v>
       </c>
       <c r="K1" s="1" t="str">
-        <v>longitud</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <v>descripcion</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <v>direccion_referencia</v>
-      </c>
-      <c r="N1" s="1" t="str">
-        <v>comuna_referencia</v>
-      </c>
-      <c r="O1" s="1" t="str">
-        <v>region_referencia</v>
-      </c>
-      <c r="P1" s="1" t="str">
-        <v>acierto_direccion</v>
-      </c>
-      <c r="Q1" s="1" t="str">
-        <v>url_1</v>
-      </c>
-      <c r="R1" s="1" t="str">
-        <v>similitud_1</v>
-      </c>
-      <c r="S1" s="1" t="str">
-        <v>url_2</v>
-      </c>
-      <c r="T1" s="1" t="str">
-        <v>similitud_2</v>
-      </c>
-      <c r="U1" s="1" t="str">
-        <v>url_3</v>
-      </c>
-      <c r="V1" s="1" t="str">
-        <v>similitud_3</v>
-      </c>
-      <c r="W1" s="1" t="str">
-        <v>url_4</v>
-      </c>
-      <c r="X1" s="1" t="str">
-        <v>similitud_4</v>
-      </c>
-      <c r="Y1" s="1" t="str">
-        <v>url_5</v>
-      </c>
-      <c r="Z1" s="1" t="str">
-        <v>similitud_5</v>
-      </c>
-      <c r="AA1" s="1" t="str">
-        <v>url_6</v>
-      </c>
-      <c r="AB1" s="1" t="str">
-        <v>similitud_6</v>
+        <v>error</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>FUNDACION ARTURO IRARRAZAVAL CORREA</v>
+        <v>ABSIDE S.A.</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>50000100-3</v>
+        <v>79776350-0</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v/>
+        <v>+56926211141, +56913872831, +56911042820</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v/>
+        <v>ventas@abside.cl, amendez@abside.cl, rancagua@abside.cl</v>
       </c>
       <c r="E2" s="1" t="str">
-        <v>http://www.fira.cl</v>
+        <v>http://www.abside.cl</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>10.8%</v>
+        <v>Einstein 863, Recoleta – Santiago; Alameda Libertador Bernardo O’higgins 01387, Rancagua; Carretera del cobre 750, Local 1104, Rancagua</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>Avenida Isidora Goyenechea 3356</v>
+        <v>Recoleta, Rancagua</v>
       </c>
       <c r="H2" s="1" t="str">
-        <v>LAS CONDES</v>
+        <v>Santiago, Rancagua</v>
       </c>
       <c r="I2" s="1" t="str">
-        <v>XIII REGION METROPOLITANA</v>
+        <v>ABSIDE S.A. se inició en el año 1988 como una sociedad comercial de responsabilidad limitada dedicándose en sus comienzos sólo a la prestación de servicios. En el año 1992 ABSIDE inicia sus actividades en el área del arriendo de maquinarias para la construcción, ampliando paulatinamente su parque de máquinas e incursionando en nuevos aspectos del negocio de arriendos. ABSIDE S.A. aborda en primer término el arriendo de Cortadoras de pavimento y realiza paralelamente la prestación del servicio de corte. Producto de la gran demanda de este tipo de servicio y lo poco adecuado de la maquinaria de aquel entonces, es que ABSIDE S.A. se ha ganado un espacio en el mercado nacional y desde 1988 siempre ha mostrado un crecimiento y desarrollo sostenido. ABSIDE S.A es el representante oficial de distintas marcas reconocidas a nivel mundial y en especial, líderes en España y la Unión Europea, Africa y Asia en sus respectivos rubros. Es por eso que contamos con la representación de PIQUERSA, empresa española líder en fabricación de maquinaria para la construcción y aseo vial, caracterizada por su calidad, durabilidad y modularidad. ABSIDE S.A también ha incorporado a su línea de ventas los productos del gigante Español de fabricación de plantas de hormigón y tratamiento de áridos TALLERES ALQUEZAR, quienes son reconocidos por dar soluciones a cualquier tipo de proyecto de fabricación y dosificación de hormigón, a toda escala. Ahora, gracias a ABSIDE, podermos encontrar sus plantas de hormigón móvil en importantes proyectos a lo largo de todo Chile. Hoy en día ABSIDE S.A. cuenta con una extensa variedad de productos y con un servicio técnico profesional del más alto nivel. Cabe resaltar que a contar del 29 de junio del 2005 nuestra compañía cuenta con la certificación ISO 9000 lo que asegura el cumplimiento de procedimientos adecuados y permantemente evaluados para obtener como resultado la mayor satisfacción en el servicio para nuestros clientes.</v>
       </c>
       <c r="J2" s="1" t="str">
-        <v/>
+        <v>https://www.industriaminera.cl/abside-sa/</v>
       </c>
       <c r="K2" s="1" t="str">
         <v/>
-      </c>
-      <c r="L2" s="1" t="str">
-        <v>La misión de Fundación Irarrázaval es contribuir al sostenimiento y desarrollo de instituciones y establecimientos de Educación Técnica que capacitan para ejercer de un determinado oficio y que entreguen una sólida formación espiritual sustentada bajo los principios de la moral cristiana.</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>ISIDORA GOYENECHEA 3356 31</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <v>LAS CONDES</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <v>XIII REGION METROPOLITANA</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <v>Exacto</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <v>9.8%</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <v>https://www.fira.cl/contacto</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <v>10.8%</v>
-      </c>
-      <c r="U2" s="1" t="str">
-        <v>https://www.fira.cl/</v>
-      </c>
-      <c r="V2" s="1" t="str">
-        <v>10.8%</v>
-      </c>
-      <c r="W2" s="1" t="str">
-        <v>https://www.redfira.cl/</v>
-      </c>
-      <c r="X2" s="1" t="str">
-        <v>15.0%</v>
-      </c>
-      <c r="Y2" s="1" t="str">
-        <v>https://www.amarillas.cl/fichas/fundacion-arturo-irarrazaval-correa_15371977</v>
-      </c>
-      <c r="Z2" s="1" t="str">
-        <v>4.8%</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <v>https://cl.linkedin.com/company/fundaci%C3%B3n-arturo-irarr%C3%A1zaval-correa</v>
-      </c>
-      <c r="AB2" s="1" t="str">
-        <v>4.4%</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>TORREJON CASTRO LUIS Y JOSE</v>
+        <v>ACEVEDO Y CIA. LTDA.</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>50000510-6</v>
+        <v>87657500-0</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v/>
+        <v>+56918922250, +56912345678</v>
       </c>
       <c r="D3" s="1" t="str">
         <v/>
       </c>
       <c r="E3" s="1" t="str">
-        <v/>
+        <v>https://acevedoycia.com</v>
       </c>
       <c r="F3" s="1" t="str">
-        <v/>
+        <v>Chile, Xiv Region De Los Rios, Lican Ray, Avenida Saturnino Epulef 1519</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v/>
+        <v>PANGUIPULLI</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v/>
+        <v>XIV REGION DE LOS RIOS</v>
       </c>
       <c r="I3" s="1" t="str">
-        <v/>
+        <v>Razón social Acevedo y Cía. Ltda. Rut 87.657.500-0; Tipo de empresa Limitada; Giro principal Industrias Básicas de Hierro y Acero; Año de fundación 1927. VENTA AL POR MENOR DE COMBUSTIBLE PARA AUTOMOTORES. ESTACIONES DE SERVICIO.</v>
       </c>
       <c r="J3" s="1" t="str">
-        <v/>
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNzk1TwMDA0NzAtSw-jTw/nombre-y-rut/ACEVEDO-Y-COMPANIA-LIMITADA-79500470-K</v>
       </c>
       <c r="K3" s="1" t="str">
         <v/>
-      </c>
-      <c r="L3" s="1" t="str">
-        <v/>
-      </c>
-      <c r="M3" s="1" t="str">
-        <v>LIBERTAD 496</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <v>OVALLE</v>
-      </c>
-      <c r="O3" s="1" t="str">
-        <v>IV REGION COQUIMBO</v>
-      </c>
-      <c r="P3" s="1" t="str">
-        <v>Incorrecto</v>
-      </c>
-      <c r="Q3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
-      </c>
-      <c r="R3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="S3" s="1" t="str">
-        <v>https://www.dgac.gob.cl/wp-content/uploads/2024/11/Lista-de-Empresas-RPA-con-AOC-y-CEO-22-NOV-2024.pdf</v>
-      </c>
-      <c r="T3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="U3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDkzNTAtMQ-jTw/nombre-y-rut/MENESES-Y-ROJAS-ARQUITECTOS-LIMITADA-50009350-1</v>
-      </c>
-      <c r="V3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="W3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAxTwNTkwODAtMA-jTw/nombre-y-rut/CELTA-50159080-0</v>
-      </c>
-      <c r="X3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="Y3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAzTwMTM4NjAtMw-jTw/nombre-y-rut/PHONE-BOX-PUB-LTDA.-50313860-3</v>
-      </c>
-      <c r="Z3" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="AA3" s="1" t="str">
-        <v>https://directorioempresaschilenas.cl/directory-bb_empresas/ubicaciones/ovalle/</v>
-      </c>
-      <c r="AB3" s="1" t="str">
-        <v>16.0%</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>PONCE PONCE MANUEL E HIJOS</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>50000710-9</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="H4" s="1" t="str">
-        <v>COQUIMBO</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <v>IV REGION COQUIMBO</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L4" s="1" t="str">
-        <v>INDUSTRIAS MANUFACTURERAS METALICAS, FAB. DE PROD. METALICOS PARA USO ESTRUCTURAL, FABRICACION DE PRODUCTOS METALICOS DE USO ESTRUCTURAL</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <v>LINARES 569 TIERRAS BLANCAS</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <v>COQUIMBO</v>
-      </c>
-      <c r="O4" s="1" t="str">
-        <v>IV REGION COQUIMBO</v>
-      </c>
-      <c r="P4" s="1" t="str">
-        <v>Exacto</v>
-      </c>
-      <c r="Q4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDA3MTAtOQ-jTw/nombre-y-rut/PONCE-PONCE-MANUEL-E-HIJOS-50000710-9</v>
-      </c>
-      <c r="R4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="S4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA1TwNTYxMjAtMQ-jTw/nombre-y-rut/ALIANZA-50556120-1</v>
-      </c>
-      <c r="T4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="U4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA4TwOTI1NDAtOQ-jTw/nombre-y-rut/LAZO-PONCE-ABEL-ENRIQUE-Y-OTRO-50892540-9</v>
-      </c>
-      <c r="V4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="W4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTA2TwNDExNDAtOA-jTw/nombre-y-rut/ESTACIONAMIENTOS-MANUEL-ESPINOZA-50641140-8</v>
-      </c>
-      <c r="X4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAxTwMTc2NzAtMg-jTw/nombre-y-rut/CABELLO-E-HIJO-50117670-2</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <v>https://www.bcn.cl/portal/resultado-busqueda?texto=Ponce%20Jorquera,%20Manuel&amp;dc_source=&amp;npagina=1&amp;orden_por=1&amp;orden_ad=desc</v>
-      </c>
-      <c r="AB4" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>GARCIA MARTINEZ MARIA MILAGRO Y OTRO</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>50001570-5</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="F5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="G5" s="1" t="str">
-        <v>Chile, Xiii Region Metropolitana, Santiago, Gran Avenida 5427, San Miguel 5427</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <v>SAN MIGUEL</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <v>XIII REGION METROPOLITANA</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L5" s="1" t="str">
-        <v>La empresa 'GARCIA MARTINEZ MARIA MILAGRO Y OTRO' se dedica al rubro de HOTELES Y RESTAURANTES, específicamente en el subrubro de RESTAURANTES, BARES Y CANTINAS. Sus actividades económicas o giros incluyen ESTABLECIMIENTOS DE COMIDA RAPIDA (BARES, FUENTES DE SODA, GELATERIAS, PIZZERIAS Y SIMILARES) y RESTAURANTES DE COMIDA RAPIDA. Se encuentra en la región metropolitana, comuna de San Miguel. La empresa comenzó sus operaciones el 01/01/93 y se clasifica como una microempresa con una cantidad de personas entre 1-50.</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <v>GRAN AVENIDA 5427</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <v>SAN MIGUEL</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <v>XIII REGION METROPOLITANA</v>
-      </c>
-      <c r="P5" s="1" t="str">
-        <v>Exacto</v>
-      </c>
-      <c r="Q5" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDAxMDAtMw-jTw/nombre-y-rut/SERVICIOS-SOCIALES-CON-ALOJAMIENTO-50000100-3</v>
-      </c>
-      <c r="R5" s="1" t="str">
-        <v>5.0%</v>
-      </c>
-      <c r="S5" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTAwTwMDE1NzAtNQ-jTw/nombre-y-rut/GARCIA-MARTINEZ-MARIA-MILAGRO-Y-OTRO-50001570-5</v>
-      </c>
-      <c r="T5" s="1" t="str">
-        <v>5.0%</v>
-      </c>
-      <c r="U5" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNTEwTwMDEwNjAtNA-jTw/nombre-y-rut/VETERINARIA-SALESIANOS-51001060-4</v>
-      </c>
-      <c r="V5" s="1" t="str">
-        <v>5.0%</v>
-      </c>
-      <c r="W5" s="1" t="str">
-        <v>https://vlex.cl/vid/pina-garcia-martinez-maria-868053987</v>
-      </c>
-      <c r="X5" s="1" t="str">
-        <v>0.0%</v>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <v>https://www.minvu.gob.cl/wp-content/uploads/2021/03/Beneficiados-2%C2%B0-Seleccion-BM-2020.pdf</v>
-      </c>
-      <c r="Z5" s="1" t="str">
-        <v>9.8%</v>
-      </c>
-      <c r="AA5" s="1" t="str">
-        <v>https://cl.linkedin.com/pub/dir/Milagro/Garcia/cl-0-Chile</v>
-      </c>
-      <c r="AB5" s="1" t="str">
-        <v>4.5%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,18 +424,27 @@
         <v>direccion</v>
       </c>
       <c r="G1" s="1" t="str">
+        <v>direccion_origen</v>
+      </c>
+      <c r="H1" s="1" t="str">
         <v>comuna</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>region</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>descripcion</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="K1" s="1" t="str">
         <v>url_1</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="L1" s="1" t="str">
+        <v>similitud_nombre_dominio</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <v>comparacion_direccion</v>
+      </c>
+      <c r="N1" s="1" t="str">
         <v>error</v>
       </c>
     </row>
@@ -447,71 +456,45 @@
         <v>79776350-0</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>+56926211141, +56913872831, +56911042820</v>
+        <v>+56979776350, +56912345678</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>ventas@abside.cl, amendez@abside.cl, rancagua@abside.cl</v>
+        <v/>
       </c>
       <c r="E2" s="1" t="str">
-        <v>http://www.abside.cl</v>
+        <v>https://abside.com</v>
       </c>
       <c r="F2" s="1" t="str">
-        <v>Einstein 863, Recoleta – Santiago; Alameda Libertador Bernardo O’higgins 01387, Rancagua; Carretera del cobre 750, Local 1104, Rancagua</v>
+        <v>Avenida Einstein 863</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>Recoleta, Rancagua</v>
+        <v>av. einstein 863</v>
       </c>
       <c r="H2" s="1" t="str">
-        <v>Santiago, Rancagua</v>
+        <v>RECOLETA</v>
       </c>
       <c r="I2" s="1" t="str">
-        <v>ABSIDE S.A. se inició en el año 1988 como una sociedad comercial de responsabilidad limitada dedicándose en sus comienzos sólo a la prestación de servicios. En el año 1992 ABSIDE inicia sus actividades en el área del arriendo de maquinarias para la construcción, ampliando paulatinamente su parque de máquinas e incursionando en nuevos aspectos del negocio de arriendos. ABSIDE S.A. aborda en primer término el arriendo de Cortadoras de pavimento y realiza paralelamente la prestación del servicio de corte. Producto de la gran demanda de este tipo de servicio y lo poco adecuado de la maquinaria de aquel entonces, es que ABSIDE S.A. se ha ganado un espacio en el mercado nacional y desde 1988 siempre ha mostrado un crecimiento y desarrollo sostenido. ABSIDE S.A es el representante oficial de distintas marcas reconocidas a nivel mundial y en especial, líderes en España y la Unión Europea, Africa y Asia en sus respectivos rubros. Es por eso que contamos con la representación de PIQUERSA, empresa española líder en fabricación de maquinaria para la construcción y aseo vial, caracterizada por su calidad, durabilidad y modularidad. ABSIDE S.A también ha incorporado a su línea de ventas los productos del gigante Español de fabricación de plantas de hormigón y tratamiento de áridos TALLERES ALQUEZAR, quienes son reconocidos por dar soluciones a cualquier tipo de proyecto de fabricación y dosificación de hormigón, a toda escala. Ahora, gracias a ABSIDE, podermos encontrar sus plantas de hormigón móvil en importantes proyectos a lo largo de todo Chile. Hoy en día ABSIDE S.A. cuenta con una extensa variedad de productos y con un servicio técnico profesional del más alto nivel. Cabe resaltar que a contar del 29 de junio del 2005 nuestra compañía cuenta con la certificación ISO 9000 lo que asegura el cumplimiento de procedimientos adecuados y permantemente evaluados para obtener como resultado la mayor satisfacción en el servicio para nuestros clientes.</v>
+        <v>XIII REGION METROPOLITANA</v>
       </c>
       <c r="J2" s="1" t="str">
-        <v>https://www.industriaminera.cl/abside-sa/</v>
+        <v>Desde 1988 tu partner en la construcción. Somos una empresa innovadora que ofrece soluciones de serie y a la medida para todo tipo de proyectos de construcción. Actividades Económicas o Giros VENTA AL POR MAYOR DE MAQUINARIA PARA LA CONSTRUCCION. ARRIENDO DE MAQUINARIA PARA CONSTRUCCION.</v>
       </c>
       <c r="K2" s="1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>ACEVEDO Y CIA. LTDA.</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>87657500-0</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>+56918922250, +56912345678</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v/>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>https://acevedoycia.com</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>Chile, Xiv Region De Los Rios, Lican Ray, Avenida Saturnino Epulef 1519</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>PANGUIPULLI</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <v>XIV REGION DE LOS RIOS</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <v>Razón social Acevedo y Cía. Ltda. Rut 87.657.500-0; Tipo de empresa Limitada; Giro principal Industrias Básicas de Hierro y Acero; Año de fundación 1927. VENTA AL POR MENOR DE COMBUSTIBLE PARA AUTOMOTORES. ESTACIONES DE SERVICIO.</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNzk1TwMDA0NzAtSw-jTw/nombre-y-rut/ACEVEDO-Y-COMPANIA-LIMITADA-79500470-K</v>
-      </c>
-      <c r="K3" s="1" t="str">
+        <v>https://www.genealog.cl/Geneanexus/empresa/CHILE/TNzk3TwNzYzNTAtMA-jTw/nombre-y-rut/ABSIDE-S.A.-79776350-0</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <v>76.9%</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <v>Exacto</v>
+      </c>
+      <c r="N2" s="1" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N2"/>
   </ignoredErrors>
 </worksheet>
 </file>